--- a/output/BM1/subclustering T cell/CIBERSORT_T_SUB.xlsx
+++ b/output/BM1/subclustering T cell/CIBERSORT_T_SUB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>T cells CD4 memory activated</t>
   </si>
@@ -46,7 +46,7 @@
     <t>ANKRD55</t>
   </si>
   <si>
-    <t>PGGHG</t>
+    <t>ATHL1</t>
   </si>
   <si>
     <t>BCL11B</t>
@@ -154,9 +154,6 @@
     <t>ETS1</t>
   </si>
   <si>
-    <t>FCMR</t>
-  </si>
-  <si>
     <t>FLT3LG</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
   </si>
   <si>
     <t>KLRB1</t>
-  </si>
-  <si>
-    <t>KLRC4</t>
   </si>
   <si>
     <t>KLRD1</t>
@@ -734,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1771,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1788,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1823,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1849,13 +1843,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1872,13 +1866,13 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -1889,10 +1883,10 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1907,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1915,16 +1909,16 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1933,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1944,19 +1938,19 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -1973,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1982,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -1993,10 +1987,10 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2019,7 +2013,7 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2048,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2077,19 +2071,19 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2097,7 +2091,7 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2112,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2126,22 +2120,22 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2149,7 +2143,7 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2158,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2175,7 +2169,7 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2184,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2193,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2201,7 +2195,7 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2216,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -2230,22 +2224,22 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2265,13 +2259,13 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2285,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2294,10 +2288,10 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2308,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2317,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2366,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2383,7 +2377,7 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2395,10 +2389,10 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2424,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2435,16 +2429,16 @@
         <v>72</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2461,22 +2455,22 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -2490,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2516,22 +2510,22 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2551,13 +2545,13 @@
         <v>1</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2565,22 +2559,22 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2594,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2603,10 +2597,10 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -2620,19 +2614,19 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2658,10 +2652,10 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2675,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2695,19 +2689,19 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2730,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2747,7 +2741,7 @@
         <v>84</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2756,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2802,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2834,13 +2828,13 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -2866,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2880,19 +2874,19 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -2906,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2915,10 +2909,10 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -2938,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2961,13 +2955,13 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2990,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2999,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3010,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3033,10 +3027,10 @@
         <v>95</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3051,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3071,13 +3065,13 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3085,13 +3079,13 @@
         <v>97</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3111,22 +3105,22 @@
         <v>98</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -3140,22 +3134,22 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3163,19 +3157,19 @@
         <v>100</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3192,16 +3186,16 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3230,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -3244,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3253,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3270,22 +3264,22 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3293,10 +3287,10 @@
         <v>105</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3319,7 +3313,7 @@
         <v>106</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -3334,10 +3328,10 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3348,13 +3342,13 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -3363,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3371,7 +3365,7 @@
         <v>108</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -3386,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -3397,25 +3391,25 @@
         <v>109</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3426,22 +3420,22 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3449,25 +3443,25 @@
         <v>111</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3481,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3501,25 +3495,25 @@
         <v>113</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3556,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3585,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3611,19 +3605,19 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3637,70 +3631,18 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
         <v>0</v>
       </c>
     </row>
